--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -2,9 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mikkel Simonsen\TIMES-DK\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="285" yWindow="45" windowWidth="9705" windowHeight="7305" tabRatio="853" activeTab="2"/>
+    <workbookView xWindow="285" yWindow="30" windowWidth="9690" windowHeight="7290" tabRatio="853" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -28,7 +33,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
     <comment ref="B4" authorId="0" shapeId="0">
@@ -51,65 +56,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="D3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>If more periods definition are created, user can change them</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>More time periods definition from here</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
+    <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
     <comment ref="G6" authorId="0" shapeId="0">
@@ -410,7 +357,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -475,20 +422,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,6 +481,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA72EC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,7 +565,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -625,7 +578,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -654,6 +606,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1304,10 +1259,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -1316,79 +1271,82 @@
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="4">
-        <v>2012</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="4">
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="4">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="30">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="4">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="30">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="4">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="30">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="30">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="30">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="4">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="30">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="4">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="30">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="4">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="30">
         <v>5</v>
       </c>
     </row>
@@ -1397,7 +1355,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1405,7 +1362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -1413,31 +1370,31 @@
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="5" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -1496,10 +1453,10 @@
         <v>33</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6" t="s">
@@ -1522,22 +1479,22 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="13" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
@@ -1642,11 +1599,11 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.140625" customWidth="1"/>
+    <col min="7" max="8" width="11.28515625" customWidth="1"/>
     <col min="9" max="11" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1660,24 +1617,24 @@
       <c r="H1" s="10"/>
     </row>
     <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="4" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -1703,22 +1660,22 @@
       <c r="G6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="24" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="26"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1740,7 +1697,7 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
@@ -1806,26 +1763,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="21"/>
-    <col min="2" max="2" width="12.140625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="14" style="21" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="21" customWidth="1"/>
-    <col min="10" max="10" width="11" style="21" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="9.140625" style="20"/>
+    <col min="2" max="2" width="12.140625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="14" style="20" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="11" style="20" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1883,37 +1840,37 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>51</v>
       </c>
       <c r="E7"/>
-      <c r="H7" s="22">
+      <c r="H7" s="21">
         <v>0.05</v>
       </c>
-      <c r="I7" s="22"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>61</v>
       </c>
       <c r="E8"/>
-      <c r="H8" s="22">
+      <c r="H8" s="21">
         <v>1</v>
       </c>
-      <c r="I8" s="22"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>72</v>
       </c>
       <c r="E9"/>
-      <c r="H9" s="22">
+      <c r="H9" s="21">
         <v>2012</v>
       </c>
-      <c r="I9" s="22"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10"/>
@@ -1921,16 +1878,16 @@
       <c r="D10" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="21" t="str">
+      <c r="F10" s="20" t="str">
         <f>Defaults!$B$4</f>
         <v>MEUR2012</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="27">
         <f>1/0.971011369084674</f>
         <v>1.0298540592193604</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="R10" s="21" t="str">
+      <c r="I10" s="21"/>
+      <c r="R10" s="20" t="str">
         <f>Defaults!B5</f>
         <v>MEUR2010</v>
       </c>
@@ -1941,16 +1898,16 @@
       <c r="D11" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="21" t="str">
+      <c r="F11" s="20" t="str">
         <f>Defaults!$B$4</f>
         <v>MEUR2012</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="27">
         <f>1/0.976646137384215</f>
         <v>1.0239123073566179</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="R11" s="21" t="str">
+      <c r="I11" s="21"/>
+      <c r="R11" s="20" t="str">
         <f>Defaults!B6</f>
         <v>MEUR2011</v>
       </c>
@@ -1961,16 +1918,16 @@
       <c r="D12" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="21" t="str">
+      <c r="F12" s="20" t="str">
         <f>Defaults!$B$4</f>
         <v>MEUR2012</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="27">
         <f>1/1.01705478454671</f>
         <v>0.98323120366194328</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="R12" s="21" t="str">
+      <c r="I12" s="21"/>
+      <c r="R12" s="20" t="str">
         <f>Defaults!B7</f>
         <v>MEUR2013</v>
       </c>
@@ -1981,16 +1938,16 @@
       <c r="D13" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="21" t="str">
+      <c r="F13" s="20" t="str">
         <f>Defaults!$B$4</f>
         <v>MEUR2012</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="27">
         <f>1/1.02306606930474</f>
         <v>0.97745397878319307</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="R13" s="21" t="str">
+      <c r="I13" s="21"/>
+      <c r="R13" s="20" t="str">
         <f>Defaults!B8</f>
         <v>MEUR2014</v>
       </c>
@@ -2001,16 +1958,16 @@
       <c r="D14" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="21" t="str">
+      <c r="F14" s="20" t="str">
         <f>Defaults!$B$4</f>
         <v>MEUR2012</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="27">
         <f>1/1.03379387534522</f>
         <v>0.96731081877039071</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="R14" s="21" t="str">
+      <c r="I14" s="21"/>
+      <c r="R14" s="20" t="str">
         <f>Defaults!B9</f>
         <v>MEUR2015</v>
       </c>
@@ -2021,14 +1978,14 @@
       <c r="D15" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <v>2012</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="21">
         <v>0.92</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="P15" s="21" t="s">
+      <c r="I15" s="21"/>
+      <c r="P15" s="20" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2038,14 +1995,14 @@
       <c r="D16" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <v>2012</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="21">
         <v>0.8</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="P16" s="21" t="s">
+      <c r="I16" s="21"/>
+      <c r="P16" s="20" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2053,36 +2010,36 @@
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
+      <c r="B20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
+      <c r="B21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2114,22 +2071,22 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="26" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2175,6 +2132,5 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
 </worksheet>
 </file>
--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mikkel Simonsen\TIMES-DK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olejandro\Documents\.home\Coding\times\times-shire\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28672387-92AB-4098-9606-DEF69FFD6754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="30" windowWidth="9690" windowHeight="7290" tabRatio="853" activeTab="1"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11055" tabRatio="853" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -26,17 +27,30 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -54,12 +68,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="G6" authorId="0" shapeId="0">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -134,229 +148,229 @@
     <t>Other_Indexes</t>
   </si>
   <si>
+    <t>IMPDEMZ</t>
+  </si>
+  <si>
+    <t>User-Defined CG</t>
+  </si>
+  <si>
+    <t>~TFM_COMGRP</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>~BookRegions_Map</t>
+  </si>
+  <si>
+    <t>~TimePeriods</t>
+  </si>
+  <si>
+    <t>~TimeSlices</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>DayNite</t>
+  </si>
+  <si>
+    <t>BookName</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>IRE</t>
+  </si>
+  <si>
+    <t>~TFM_INS</t>
+  </si>
+  <si>
+    <t>TimeSlice</t>
+  </si>
+  <si>
+    <t>LimType</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Pset_Set</t>
+  </si>
+  <si>
+    <t>Pset_PN</t>
+  </si>
+  <si>
+    <t>Pset_CI</t>
+  </si>
+  <si>
+    <t>Pset_CO</t>
+  </si>
+  <si>
+    <t>Cset_Set</t>
+  </si>
+  <si>
+    <t>Cset_CN</t>
+  </si>
+  <si>
+    <t>Cset_CD</t>
+  </si>
+  <si>
+    <t>Pset_PD</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>~ImpSettings</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Check #DIV/0 and #REF errors in Templates</t>
+  </si>
+  <si>
+    <t>Create Dummy Imports for Energy and Material Commodities</t>
+  </si>
+  <si>
+    <t>Create Dummy Imports for Demands</t>
+  </si>
+  <si>
+    <t>Generate Vintage Bounds</t>
+  </si>
+  <si>
+    <t>~StartYear</t>
+  </si>
+  <si>
+    <t>~ActivePDef</t>
+  </si>
+  <si>
+    <t>Pdef-1</t>
+  </si>
+  <si>
+    <t>* Define the explicit commodity groups needed</t>
+  </si>
+  <si>
+    <t>\I:Commodity Group Name</t>
+  </si>
+  <si>
+    <t>Commodity Group Description</t>
+  </si>
+  <si>
+    <t>Dummy Imp Prices</t>
+  </si>
+  <si>
+    <t>* Set the interpolation rules for key parameters and other data manipulation options. In the following table a standard set of key parameters and manipulation options. See the Getting Started for more informations</t>
+  </si>
+  <si>
+    <t>*Set a default price or apply a factor for those IMPorts with "Z" in the name.</t>
+  </si>
+  <si>
+    <t>Tech_Comm_Info</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>* Define constants for the model</t>
+  </si>
+  <si>
+    <t>~Currencies</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>~DefUnits</t>
+  </si>
+  <si>
+    <t>Process_ActUnit</t>
+  </si>
+  <si>
+    <t>Process_CapUnit</t>
+  </si>
+  <si>
+    <t>Commodity_Unit</t>
+  </si>
+  <si>
+    <t>SHR</t>
+  </si>
+  <si>
+    <t>ANNUAL</t>
+  </si>
+  <si>
+    <t>YRFR</t>
+  </si>
+  <si>
+    <t>SUP</t>
+  </si>
+  <si>
+    <t>TRA</t>
+  </si>
+  <si>
+    <t>RCI</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>MEUR2012</t>
+  </si>
+  <si>
+    <t>MEUR2010</t>
+  </si>
+  <si>
+    <t>MEUR2011</t>
+  </si>
+  <si>
+    <t>MEUR2013</t>
+  </si>
+  <si>
+    <t>MEUR2014</t>
+  </si>
+  <si>
+    <t>G_CUREX</t>
+  </si>
+  <si>
+    <t>G_DYEAR</t>
+  </si>
+  <si>
+    <t>CURR</t>
+  </si>
+  <si>
+    <t>COM_IE</t>
+  </si>
+  <si>
+    <t>ELCC</t>
+  </si>
+  <si>
+    <t>HET</t>
+  </si>
+  <si>
+    <t>MEUR2015</t>
+  </si>
+  <si>
     <t>ACTCOST</t>
-  </si>
-  <si>
-    <t>IMPDEMZ</t>
-  </si>
-  <si>
-    <t>User-Defined CG</t>
-  </si>
-  <si>
-    <t>~TFM_COMGRP</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>~BookRegions_Map</t>
-  </si>
-  <si>
-    <t>~TimePeriods</t>
-  </si>
-  <si>
-    <t>~TimeSlices</t>
-  </si>
-  <si>
-    <t>Season</t>
-  </si>
-  <si>
-    <t>Weekly</t>
-  </si>
-  <si>
-    <t>DayNite</t>
-  </si>
-  <si>
-    <t>BookName</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>IRE</t>
-  </si>
-  <si>
-    <t>~TFM_INS</t>
-  </si>
-  <si>
-    <t>TimeSlice</t>
-  </si>
-  <si>
-    <t>LimType</t>
-  </si>
-  <si>
-    <t>Attribute</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Pset_Set</t>
-  </si>
-  <si>
-    <t>Pset_PN</t>
-  </si>
-  <si>
-    <t>Pset_CI</t>
-  </si>
-  <si>
-    <t>Pset_CO</t>
-  </si>
-  <si>
-    <t>Cset_Set</t>
-  </si>
-  <si>
-    <t>Cset_CN</t>
-  </si>
-  <si>
-    <t>Cset_CD</t>
-  </si>
-  <si>
-    <t>Pset_PD</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>~ImpSettings</t>
-  </si>
-  <si>
-    <t>Option</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Check #DIV/0 and #REF errors in Templates</t>
-  </si>
-  <si>
-    <t>Create Dummy Imports for Energy and Material Commodities</t>
-  </si>
-  <si>
-    <t>Create Dummy Imports for Demands</t>
-  </si>
-  <si>
-    <t>Generate Vintage Bounds</t>
-  </si>
-  <si>
-    <t>~StartYear</t>
-  </si>
-  <si>
-    <t>~ActivePDef</t>
-  </si>
-  <si>
-    <t>Pdef-1</t>
-  </si>
-  <si>
-    <t>* Define the explicit commodity groups needed</t>
-  </si>
-  <si>
-    <t>\I:Commodity Group Name</t>
-  </si>
-  <si>
-    <t>Commodity Group Description</t>
-  </si>
-  <si>
-    <t>Dummy Imp Prices</t>
-  </si>
-  <si>
-    <t>* Set the interpolation rules for key parameters and other data manipulation options. In the following table a standard set of key parameters and manipulation options. See the Getting Started for more informations</t>
-  </si>
-  <si>
-    <t>*Set a default price or apply a factor for those IMPorts with "Z" in the name.</t>
-  </si>
-  <si>
-    <t>Tech_Comm_Info</t>
-  </si>
-  <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t>* Define constants for the model</t>
-  </si>
-  <si>
-    <t>~Currencies</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>~DefUnits</t>
-  </si>
-  <si>
-    <t>Process_ActUnit</t>
-  </si>
-  <si>
-    <t>Process_CapUnit</t>
-  </si>
-  <si>
-    <t>Commodity_Unit</t>
-  </si>
-  <si>
-    <t>SHR</t>
-  </si>
-  <si>
-    <t>ANNUAL</t>
-  </si>
-  <si>
-    <t>YRFR</t>
-  </si>
-  <si>
-    <t>SUP</t>
-  </si>
-  <si>
-    <t>TRA</t>
-  </si>
-  <si>
-    <t>RCI</t>
-  </si>
-  <si>
-    <t>ELC</t>
-  </si>
-  <si>
-    <t>MEUR2012</t>
-  </si>
-  <si>
-    <t>MEUR2010</t>
-  </si>
-  <si>
-    <t>MEUR2011</t>
-  </si>
-  <si>
-    <t>MEUR2013</t>
-  </si>
-  <si>
-    <t>MEUR2014</t>
-  </si>
-  <si>
-    <t>G_CUREX</t>
-  </si>
-  <si>
-    <t>G_DYEAR</t>
-  </si>
-  <si>
-    <t>CURR</t>
-  </si>
-  <si>
-    <t>COM_IE</t>
-  </si>
-  <si>
-    <t>ELCC</t>
-  </si>
-  <si>
-    <t>HET</t>
-  </si>
-  <si>
-    <t>MEUR2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -565,7 +579,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -576,11 +590,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -600,8 +613,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -612,10 +625,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="1"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normale_B2020" xfId="3"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="4"/>
+    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normale_B2020" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -631,7 +644,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -766,9 +779,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -806,9 +819,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -843,7 +856,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -878,7 +891,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1051,8 +1064,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
@@ -1067,187 +1080,45 @@
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10" t="s">
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1259,11 +1130,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1276,8 +1147,8 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="28" t="s">
-        <v>41</v>
+      <c r="B3" s="27" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
@@ -1286,67 +1157,67 @@
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="28" t="s">
-        <v>42</v>
+      <c r="B7" s="27" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="28" t="s">
-        <v>12</v>
+      <c r="B11" s="27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B12" s="29" t="s">
-        <v>43</v>
+      <c r="B12" s="28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B13" s="30">
+      <c r="B13" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B14" s="30">
+      <c r="B14" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B15" s="30">
+      <c r="B15" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B16" s="30">
+      <c r="B16" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="30">
+      <c r="B17" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="30">
+      <c r="B18" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="30">
+      <c r="B19" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="30">
+      <c r="B20" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="30">
+      <c r="B21" s="29">
         <v>5</v>
       </c>
     </row>
@@ -1359,42 +1230,43 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:P19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
     <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="B3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="5" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -1403,16 +1275,16 @@
     </row>
     <row r="7" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>4</v>
@@ -1421,98 +1293,98 @@
         <v>3</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="N7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="O7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="P7" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="13" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="12" t="s">
-        <v>49</v>
+      <c r="B13" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="B15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>4</v>
@@ -1521,44 +1393,44 @@
         <v>3</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="K17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="5" t="s">
+      <c r="M17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="N17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="O17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="P17" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="G18" s="11">
+        <v>77</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="G18" s="10">
         <v>2222</v>
       </c>
-      <c r="H18" s="11"/>
+      <c r="H18" s="10"/>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s">
         <v>2</v>
@@ -1566,18 +1438,18 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="G19" s="10">
+        <v>8888</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s">
         <v>5</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="G19" s="11">
-        <v>8888</v>
-      </c>
-      <c r="H19" s="11"/>
-      <c r="I19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1589,8 +1461,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B2:H7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -1607,75 +1479,66 @@
     <col min="9" max="11" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
     <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="B2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="4" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="D6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="24" t="s">
-        <v>59</v>
+      <c r="H6" s="23" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="25"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1687,7 +1550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B4:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1702,20 +1565,20 @@
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="9">
         <v>1</v>
@@ -1723,7 +1586,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="9">
         <v>1</v>
@@ -1731,7 +1594,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="9">
         <v>1</v>
@@ -1739,7 +1602,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="9">
         <v>0</v>
@@ -1754,7 +1617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:R25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1763,131 +1626,131 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="20"/>
-    <col min="2" max="2" width="12.140625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="14" style="20" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="20" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="20" customWidth="1"/>
-    <col min="10" max="10" width="11" style="20" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="9.140625" style="19"/>
+    <col min="2" max="2" width="12.140625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="14" style="19" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="11" style="19" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
-        <v>52</v>
+      <c r="B3" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="19" t="s">
-        <v>20</v>
+      <c r="B5" s="18" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="I6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D7" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7"/>
+      <c r="H7" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D7" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7"/>
-      <c r="H7" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="I7" s="21"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>61</v>
-      </c>
       <c r="E8"/>
-      <c r="H8" s="21">
+      <c r="H8" s="20">
         <v>1</v>
       </c>
-      <c r="I8" s="21"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D9" s="20" t="s">
-        <v>72</v>
+      <c r="D9" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="E9"/>
-      <c r="H9" s="21">
+      <c r="H9" s="20">
         <v>2012</v>
       </c>
-      <c r="I9" s="21"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="20" t="str">
+        <v>70</v>
+      </c>
+      <c r="F10" s="19" t="str">
         <f>Defaults!$B$4</f>
         <v>MEUR2012</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="26">
         <f>1/0.971011369084674</f>
         <v>1.0298540592193604</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="R10" s="20" t="str">
+      <c r="I10" s="20"/>
+      <c r="R10" s="19" t="str">
         <f>Defaults!B5</f>
         <v>MEUR2010</v>
       </c>
@@ -1896,18 +1759,18 @@
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="20" t="str">
+        <v>70</v>
+      </c>
+      <c r="F11" s="19" t="str">
         <f>Defaults!$B$4</f>
         <v>MEUR2012</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="26">
         <f>1/0.976646137384215</f>
         <v>1.0239123073566179</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="R11" s="20" t="str">
+      <c r="I11" s="20"/>
+      <c r="R11" s="19" t="str">
         <f>Defaults!B6</f>
         <v>MEUR2011</v>
       </c>
@@ -1916,18 +1779,18 @@
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="20" t="str">
+        <v>70</v>
+      </c>
+      <c r="F12" s="19" t="str">
         <f>Defaults!$B$4</f>
         <v>MEUR2012</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="26">
         <f>1/1.01705478454671</f>
         <v>0.98323120366194328</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="R12" s="20" t="str">
+      <c r="I12" s="20"/>
+      <c r="R12" s="19" t="str">
         <f>Defaults!B7</f>
         <v>MEUR2013</v>
       </c>
@@ -1936,18 +1799,18 @@
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="20" t="str">
+        <v>70</v>
+      </c>
+      <c r="F13" s="19" t="str">
         <f>Defaults!$B$4</f>
         <v>MEUR2012</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="26">
         <f>1/1.02306606930474</f>
         <v>0.97745397878319307</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="R13" s="20" t="str">
+      <c r="I13" s="20"/>
+      <c r="R13" s="19" t="str">
         <f>Defaults!B8</f>
         <v>MEUR2014</v>
       </c>
@@ -1956,18 +1819,18 @@
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="20" t="str">
+        <v>70</v>
+      </c>
+      <c r="F14" s="19" t="str">
         <f>Defaults!$B$4</f>
         <v>MEUR2012</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="26">
         <f>1/1.03379387534522</f>
         <v>0.96731081877039071</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="R14" s="20" t="str">
+      <c r="I14" s="20"/>
+      <c r="R14" s="19" t="str">
         <f>Defaults!B9</f>
         <v>MEUR2015</v>
       </c>
@@ -1976,70 +1839,70 @@
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="19">
+        <v>2012</v>
+      </c>
+      <c r="H15" s="20">
+        <v>0.92</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="P15" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="E15" s="20">
-        <v>2012</v>
-      </c>
-      <c r="H15" s="21">
-        <v>0.92</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="P15" s="20" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="20">
+        <v>73</v>
+      </c>
+      <c r="E16" s="19">
         <v>2012</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="20">
         <v>0.8</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="P16" s="20" t="s">
-        <v>76</v>
+      <c r="I16" s="20"/>
+      <c r="P16" s="19" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
+      <c r="B20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
+      <c r="B21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2050,7 +1913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2064,69 +1927,69 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="26" t="s">
+      <c r="D3" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="G3" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="H3" s="25" t="s">
         <v>64</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
